--- a/1я стр тесты.xlsx
+++ b/1я стр тесты.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="Workbook________" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anya\Desktop\курсы qa\модуль 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anya\Documents\GitHub\my-third-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="66">
   <si>
     <t>passed</t>
   </si>
@@ -307,7 +307,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +483,15 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -715,7 +724,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -859,6 +868,23 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -889,44 +915,29 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1326,10 +1337,10 @@
   <dimension ref="A1:DT62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="7" topLeftCell="L9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1373,7 +1384,7 @@
       <c r="K1" s="11"/>
       <c r="L1" s="16">
         <f>COUNTIF(L$8:L$43,"failed")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M1" s="11"/>
       <c r="N1" s="16">
@@ -1418,7 +1429,7 @@
       <c r="K2" s="11"/>
       <c r="L2" s="17">
         <f>COUNTIF(L$8:L$43,"passed")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M2" s="11"/>
       <c r="N2" s="17">
@@ -1545,43 +1556,43 @@
     </row>
     <row r="6" spans="1:124" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="C6" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="60"/>
-      <c r="G6" s="58" t="s">
+      <c r="F6" s="67"/>
+      <c r="G6" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="56"/>
+      <c r="J6" s="63"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="55" t="s">
+      <c r="L6" s="62" t="s">
         <v>21</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="55" t="s">
+      <c r="N6" s="62" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="55"/>
+      <c r="P6" s="62"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="55"/>
+      <c r="R6" s="62"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="55"/>
+      <c r="T6" s="62"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1591,29 +1602,29 @@
     </row>
     <row r="7" spans="1:124" ht="36.75" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="61"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="68"/>
       <c r="E7" s="24" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="57"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="64"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="55"/>
+      <c r="L7" s="62"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="55"/>
+      <c r="N7" s="62"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="55"/>
+      <c r="P7" s="62"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="55"/>
+      <c r="R7" s="62"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="55"/>
+      <c r="T7" s="62"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1643,7 +1654,9 @@
       <c r="I8" s="21"/>
       <c r="J8" s="20"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M8" s="11"/>
       <c r="N8" s="6"/>
       <c r="O8" s="11"/>
@@ -1679,7 +1692,9 @@
       <c r="I9" s="43"/>
       <c r="J9" s="42"/>
       <c r="K9" s="48"/>
-      <c r="L9" s="49"/>
+      <c r="L9" s="61" t="s">
+        <v>1</v>
+      </c>
       <c r="M9" s="11"/>
       <c r="N9" s="49"/>
       <c r="O9" s="11"/>
@@ -1715,7 +1730,9 @@
       <c r="I10" s="28"/>
       <c r="J10" s="20"/>
       <c r="K10" s="10"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="11"/>
       <c r="N10" s="6"/>
       <c r="O10" s="11"/>
@@ -1751,7 +1768,9 @@
       <c r="I11" s="21"/>
       <c r="J11" s="20"/>
       <c r="K11" s="10"/>
-      <c r="L11" s="6"/>
+      <c r="L11" s="60" t="s">
+        <v>1</v>
+      </c>
       <c r="M11" s="11"/>
       <c r="N11" s="6"/>
       <c r="O11" s="11"/>
@@ -1921,7 +1940,9 @@
       <c r="I13" s="21"/>
       <c r="J13" s="20"/>
       <c r="K13" s="10"/>
-      <c r="L13" s="6"/>
+      <c r="L13" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="11"/>
       <c r="N13" s="6"/>
       <c r="O13" s="11"/>
@@ -1959,7 +1980,9 @@
       <c r="I14" s="21"/>
       <c r="J14" s="20"/>
       <c r="K14" s="10"/>
-      <c r="L14" s="6"/>
+      <c r="L14" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M14" s="11"/>
       <c r="N14" s="6"/>
       <c r="O14" s="11"/>
@@ -1995,7 +2018,9 @@
       <c r="I15" s="21"/>
       <c r="J15" s="20"/>
       <c r="K15" s="10"/>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M15" s="11"/>
       <c r="N15" s="6"/>
       <c r="O15" s="11"/>
@@ -2031,7 +2056,9 @@
       <c r="I16" s="21"/>
       <c r="J16" s="20"/>
       <c r="K16" s="10"/>
-      <c r="L16" s="6"/>
+      <c r="L16" s="6" t="s">
+        <v>0</v>
+      </c>
       <c r="M16" s="11"/>
       <c r="N16" s="6"/>
       <c r="O16" s="11"/>
@@ -2067,7 +2094,9 @@
       <c r="I17" s="21"/>
       <c r="J17" s="20"/>
       <c r="K17" s="10"/>
-      <c r="L17" s="6"/>
+      <c r="L17" s="60" t="s">
+        <v>1</v>
+      </c>
       <c r="M17" s="11"/>
       <c r="N17" s="6"/>
       <c r="O17" s="11"/>
@@ -3371,168 +3400,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
       <c r="E2" s="52" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A3" s="68"/>
-      <c r="B3" s="66" t="s">
+      <c r="A3" s="73"/>
+      <c r="B3" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
       <c r="E3" s="51" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="A4" s="68"/>
-      <c r="B4" s="66" t="s">
+      <c r="A4" s="73"/>
+      <c r="B4" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
       <c r="E4" s="51" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="A5" s="68"/>
-      <c r="B5" s="66" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
       <c r="E5" s="51" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="A6" s="68"/>
-      <c r="B6" s="66" t="s">
+      <c r="A6" s="73"/>
+      <c r="B6" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="74"/>
       <c r="E6" s="51" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="68"/>
-      <c r="B7" s="71" t="s">
+      <c r="A7" s="73"/>
+      <c r="B7" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="75" t="s">
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="57" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
       <c r="E8" s="51" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="66"/>
-      <c r="B9" s="66" t="s">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
       <c r="E9" s="51" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="66"/>
-      <c r="B10" s="70" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
       <c r="E10" s="51" t="s">
         <v>22</v>
       </c>
       <c r="J10" s="44"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="66"/>
-      <c r="B11" s="66" t="s">
+      <c r="A11" s="74"/>
+      <c r="B11" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
       <c r="E11" s="51" t="s">
         <v>22</v>
       </c>
       <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="72"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
       <c r="J12" s="44"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="72"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
       <c r="J13" s="44"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="72"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
       <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="72"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
       <c r="J15" s="44"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A16" s="74"/>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
       <c r="E16" s="53"/>
       <c r="F16" s="53"/>
       <c r="H16" s="53"/>
@@ -3540,10 +3569,10 @@
       <c r="J16" s="53"/>
     </row>
     <row r="17" spans="1:10" ht="18" customHeight="1">
-      <c r="A17" s="72"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
       <c r="E17" s="53"/>
       <c r="F17" s="53"/>
       <c r="G17" s="53"/>
@@ -3551,10 +3580,10 @@
       <c r="J17" s="53"/>
     </row>
     <row r="18" spans="1:10" ht="19.5" customHeight="1">
-      <c r="A18" s="72"/>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
       <c r="E18" s="50"/>
       <c r="F18" s="50"/>
       <c r="G18" s="50"/>
@@ -3563,10 +3592,10 @@
       <c r="J18" s="54"/>
     </row>
     <row r="19" spans="1:10" ht="18" customHeight="1">
-      <c r="A19" s="72"/>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="50"/>
@@ -3577,8 +3606,8 @@
     <row r="20" spans="1:10">
       <c r="A20" s="50"/>
       <c r="B20" s="44"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
       <c r="G20" s="50"/>
@@ -3589,8 +3618,8 @@
     <row r="21" spans="1:10">
       <c r="A21" s="50"/>
       <c r="B21" s="44"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
       <c r="E21" s="50"/>
       <c r="F21" s="50"/>
       <c r="G21" s="50"/>
@@ -3601,8 +3630,8 @@
     <row r="22" spans="1:10" ht="15.75" customHeight="1">
       <c r="A22" s="50"/>
       <c r="B22" s="50"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
       <c r="E22" s="50"/>
       <c r="F22" s="50"/>
       <c r="G22" s="50"/>
@@ -3613,8 +3642,8 @@
     <row r="23" spans="1:10">
       <c r="A23" s="50"/>
       <c r="B23" s="50"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
       <c r="E23" s="50"/>
       <c r="F23" s="50"/>
       <c r="G23" s="50"/>
@@ -3625,8 +3654,8 @@
     <row r="24" spans="1:10">
       <c r="A24" s="50"/>
       <c r="B24" s="50"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
       <c r="E24" s="50"/>
       <c r="F24" s="50"/>
       <c r="G24" s="50"/>
@@ -3637,8 +3666,8 @@
     <row r="25" spans="1:10">
       <c r="A25" s="50"/>
       <c r="B25" s="50"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="76"/>
       <c r="E25" s="50"/>
       <c r="F25" s="50"/>
       <c r="G25" s="50"/>
@@ -3649,8 +3678,8 @@
     <row r="26" spans="1:10" ht="18" customHeight="1">
       <c r="A26" s="50"/>
       <c r="B26" s="50"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
       <c r="E26" s="50"/>
       <c r="F26" s="50"/>
       <c r="G26" s="50"/>
@@ -3661,8 +3690,8 @@
     <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="A27" s="50"/>
       <c r="B27" s="50"/>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="76"/>
       <c r="E27" s="50"/>
       <c r="F27" s="50"/>
       <c r="G27" s="50"/>
@@ -3673,8 +3702,8 @@
     <row r="28" spans="1:10">
       <c r="A28" s="50"/>
       <c r="B28" s="50"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
       <c r="E28" s="50"/>
       <c r="F28" s="50"/>
       <c r="G28" s="50"/>
@@ -3685,8 +3714,8 @@
     <row r="29" spans="1:10">
       <c r="A29" s="50"/>
       <c r="B29" s="50"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
       <c r="E29" s="50"/>
       <c r="F29" s="50"/>
       <c r="G29" s="50"/>
@@ -3697,8 +3726,8 @@
     <row r="30" spans="1:10">
       <c r="A30" s="50"/>
       <c r="B30" s="50"/>
-      <c r="C30" s="73"/>
-      <c r="D30" s="73"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
       <c r="E30" s="50"/>
       <c r="F30" s="50"/>
       <c r="G30" s="50"/>
@@ -3709,8 +3738,8 @@
     <row r="31" spans="1:10" ht="15" customHeight="1">
       <c r="A31" s="50"/>
       <c r="B31" s="50"/>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
       <c r="E31" s="50"/>
       <c r="F31" s="50"/>
       <c r="G31" s="50"/>
@@ -3720,9 +3749,9 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="50"/>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
       <c r="E32" s="50"/>
       <c r="F32" s="50"/>
       <c r="G32" s="50"/>
@@ -3732,9 +3761,9 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="50"/>
-      <c r="B33" s="73"/>
-      <c r="C33" s="73"/>
-      <c r="D33" s="73"/>
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
       <c r="E33" s="50"/>
       <c r="F33" s="50"/>
       <c r="G33" s="50"/>
@@ -3744,9 +3773,9 @@
     </row>
     <row r="34" spans="1:10" ht="27" customHeight="1">
       <c r="A34" s="50"/>
-      <c r="B34" s="72"/>
-      <c r="C34" s="72"/>
-      <c r="D34" s="72"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
       <c r="E34" s="50"/>
       <c r="F34" s="50"/>
       <c r="G34" s="50"/>
@@ -3755,10 +3784,10 @@
       <c r="J34" s="54"/>
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A35" s="72"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="44"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
+      <c r="C35" s="76"/>
+      <c r="D35" s="76"/>
       <c r="E35" s="50"/>
       <c r="F35" s="50"/>
       <c r="G35" s="50"/>
@@ -3767,10 +3796,10 @@
       <c r="J35" s="54"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="72"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="50"/>
-      <c r="C36" s="73"/>
-      <c r="D36" s="73"/>
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
       <c r="E36" s="50"/>
       <c r="F36" s="50"/>
       <c r="G36" s="50"/>
@@ -3779,10 +3808,10 @@
       <c r="J36" s="54"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="72"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="50"/>
-      <c r="C37" s="73"/>
-      <c r="D37" s="73"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
       <c r="E37" s="50"/>
       <c r="F37" s="50"/>
       <c r="G37" s="50"/>
@@ -3791,10 +3820,10 @@
       <c r="J37" s="54"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="72"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="50"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
+      <c r="C38" s="76"/>
+      <c r="D38" s="76"/>
       <c r="E38" s="50"/>
       <c r="F38" s="50"/>
       <c r="G38" s="50"/>
@@ -3803,10 +3832,10 @@
       <c r="J38" s="54"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A39" s="72"/>
+      <c r="A39" s="55"/>
       <c r="B39" s="50"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="73"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="76"/>
       <c r="E39" s="50"/>
       <c r="F39" s="50"/>
       <c r="G39" s="50"/>
@@ -3815,10 +3844,10 @@
       <c r="J39" s="54"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A40" s="72"/>
+      <c r="A40" s="55"/>
       <c r="B40" s="44"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
       <c r="E40" s="50"/>
       <c r="F40" s="50"/>
       <c r="G40" s="50"/>
@@ -3827,10 +3856,10 @@
       <c r="J40" s="54"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="72"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="44"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="73"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
       <c r="E41" s="50"/>
       <c r="F41" s="50"/>
       <c r="G41" s="50"/>
@@ -3839,10 +3868,10 @@
       <c r="J41" s="54"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="72"/>
+      <c r="A42" s="55"/>
       <c r="B42" s="44"/>
-      <c r="C42" s="73"/>
-      <c r="D42" s="73"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
       <c r="E42" s="50"/>
       <c r="F42" s="50"/>
       <c r="G42" s="50"/>
@@ -3851,10 +3880,10 @@
       <c r="J42" s="54"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="72"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="73"/>
-      <c r="D43" s="73"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="76"/>
+      <c r="D43" s="76"/>
       <c r="E43" s="50"/>
       <c r="F43" s="50"/>
       <c r="G43" s="50"/>
@@ -3863,10 +3892,10 @@
       <c r="J43" s="54"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="72"/>
+      <c r="A44" s="55"/>
       <c r="B44" s="44"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
       <c r="E44" s="50"/>
       <c r="F44" s="50"/>
       <c r="G44" s="50"/>
@@ -3875,10 +3904,10 @@
       <c r="J44" s="54"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="72"/>
+      <c r="A45" s="55"/>
       <c r="B45" s="44"/>
-      <c r="C45" s="73"/>
-      <c r="D45" s="73"/>
+      <c r="C45" s="76"/>
+      <c r="D45" s="76"/>
       <c r="E45" s="50"/>
       <c r="F45" s="50"/>
       <c r="G45" s="50"/>
@@ -3887,10 +3916,10 @@
       <c r="J45" s="54"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="72"/>
+      <c r="A46" s="55"/>
       <c r="B46" s="44"/>
-      <c r="C46" s="73"/>
-      <c r="D46" s="73"/>
+      <c r="C46" s="76"/>
+      <c r="D46" s="76"/>
       <c r="E46" s="50"/>
       <c r="F46" s="50"/>
       <c r="G46" s="50"/>
@@ -3899,10 +3928,10 @@
       <c r="J46" s="54"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="72"/>
-      <c r="B47" s="73"/>
-      <c r="C47" s="73"/>
-      <c r="D47" s="73"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="76"/>
+      <c r="C47" s="76"/>
+      <c r="D47" s="76"/>
       <c r="E47" s="50"/>
       <c r="F47" s="50"/>
       <c r="G47" s="50"/>
@@ -3911,10 +3940,10 @@
       <c r="J47" s="54"/>
     </row>
     <row r="48" spans="1:10" ht="17.25" customHeight="1">
-      <c r="A48" s="72"/>
-      <c r="B48" s="73"/>
-      <c r="C48" s="73"/>
-      <c r="D48" s="73"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
       <c r="E48" s="50"/>
       <c r="F48" s="50"/>
       <c r="G48" s="50"/>
@@ -3923,10 +3952,10 @@
       <c r="J48" s="54"/>
     </row>
     <row r="49" spans="1:10" ht="15" customHeight="1">
-      <c r="A49" s="72"/>
-      <c r="B49" s="76"/>
-      <c r="C49" s="73"/>
-      <c r="D49" s="73"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="76"/>
+      <c r="D49" s="76"/>
       <c r="E49" s="50"/>
       <c r="F49" s="50"/>
       <c r="G49" s="50"/>
@@ -3935,10 +3964,10 @@
       <c r="J49" s="54"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="72"/>
-      <c r="B50" s="76"/>
-      <c r="C50" s="73"/>
-      <c r="D50" s="73"/>
+      <c r="A50" s="55"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="76"/>
+      <c r="D50" s="76"/>
       <c r="E50" s="50"/>
       <c r="F50" s="50"/>
       <c r="G50" s="50"/>
@@ -3947,10 +3976,10 @@
       <c r="J50" s="54"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="72"/>
-      <c r="B51" s="76"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="73"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="76"/>
+      <c r="D51" s="76"/>
       <c r="E51" s="50"/>
       <c r="F51" s="50"/>
       <c r="G51" s="50"/>
@@ -3959,10 +3988,10 @@
       <c r="J51" s="54"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="72"/>
-      <c r="B52" s="76"/>
-      <c r="C52" s="73"/>
-      <c r="D52" s="73"/>
+      <c r="A52" s="55"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
       <c r="E52" s="50"/>
       <c r="F52" s="50"/>
       <c r="G52" s="50"/>
@@ -3971,10 +4000,10 @@
       <c r="J52" s="54"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="72"/>
-      <c r="B53" s="76"/>
-      <c r="C53" s="73"/>
-      <c r="D53" s="73"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="76"/>
+      <c r="D53" s="76"/>
       <c r="E53" s="50"/>
       <c r="F53" s="50"/>
       <c r="G53" s="50"/>
@@ -3983,10 +4012,10 @@
       <c r="J53" s="54"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="72"/>
-      <c r="B54" s="72"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="73"/>
+      <c r="A54" s="55"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
       <c r="E54" s="50"/>
       <c r="F54" s="50"/>
       <c r="G54" s="50"/>
@@ -3995,10 +4024,10 @@
       <c r="J54" s="54"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="72"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="73"/>
-      <c r="D55" s="73"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
       <c r="E55" s="50"/>
       <c r="F55" s="50"/>
       <c r="G55" s="50"/>
@@ -4007,10 +4036,10 @@
       <c r="J55" s="54"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="72"/>
-      <c r="B56" s="72"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="73"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="76"/>
+      <c r="D56" s="76"/>
       <c r="E56" s="50"/>
       <c r="F56" s="50"/>
       <c r="G56" s="50"/>
@@ -4019,10 +4048,10 @@
       <c r="J56" s="54"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="72"/>
-      <c r="B57" s="72"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="73"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="76"/>
+      <c r="D57" s="76"/>
       <c r="E57" s="50"/>
       <c r="F57" s="50"/>
       <c r="G57" s="50"/>
@@ -4031,10 +4060,10 @@
       <c r="J57" s="54"/>
     </row>
     <row r="58" spans="1:10">
-      <c r="A58" s="72"/>
-      <c r="B58" s="72"/>
-      <c r="C58" s="73"/>
-      <c r="D58" s="73"/>
+      <c r="A58" s="55"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="76"/>
       <c r="E58" s="50"/>
       <c r="F58" s="50"/>
       <c r="G58" s="50"/>
@@ -4050,11 +4079,21 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A8:A11"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="C53:D53"/>
@@ -4074,19 +4113,8 @@
     <mergeCell ref="C45:D45"/>
     <mergeCell ref="C46:D46"/>
     <mergeCell ref="B47:D47"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="C20:D20"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
@@ -4103,12 +4131,13 @@
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B7:D7"/>
+    <mergeCell ref="A2:A7"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
